--- a/From Solstorm/Data/Stocks.xlsx
+++ b/From Solstorm/Data/Stocks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fredrik Hausken\OneDrive\Skole\NTNU\Master\MasterThesisRepository\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="6DA39FEB23D48C31280FDB585F85096D805DBD6A" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{31B362CC-2877-4B87-B36F-33B05E6DDE7D}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="6DA39FEB23D48C31280FDB585F85096D805DBD6A" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{10EF91D1-5137-4FDB-AD30-09E75239E3E1}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25598" windowHeight="9623" xr2:uid="{110DA888-1249-474E-921F-19FA068D37A4}"/>
   </bookViews>
@@ -86,9 +86,6 @@
     <t>GSF</t>
   </si>
   <si>
-    <t>Lerøy Seafood Group</t>
-  </si>
-  <si>
     <t>LSG</t>
   </si>
   <si>
@@ -183,6 +180,9 @@
   </si>
   <si>
     <t>Stock</t>
+  </si>
+  <si>
+    <t>Leroy Seafood Group</t>
   </si>
 </sst>
 </file>
@@ -555,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909A5B1F-B6FE-42FB-A7AF-2CDF708C07E3}">
   <dimension ref="A1:B195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -567,7 +567,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -647,130 +647,130 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">

--- a/From Solstorm/Data/Stocks.xlsx
+++ b/From Solstorm/Data/Stocks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fredrik Hausken\OneDrive\Skole\NTNU\Master\MasterThesisRepository\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="6DA39FEB23D48C31280FDB585F85096D805DBD6A" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{10EF91D1-5137-4FDB-AD30-09E75239E3E1}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="6DA39FEB23D48C31280FDB585F85096D805DBD6A" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{1A170506-A36C-4294-889D-955441056626}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25598" windowHeight="9623" xr2:uid="{110DA888-1249-474E-921F-19FA068D37A4}"/>
   </bookViews>
@@ -33,66 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Ticker</t>
   </si>
   <si>
-    <t>Aker BP</t>
-  </si>
-  <si>
-    <t>AKERBP</t>
-  </si>
-  <si>
-    <t>Aker Solutions</t>
-  </si>
-  <si>
-    <t>AKSO</t>
-  </si>
-  <si>
-    <t>BW LPG</t>
-  </si>
-  <si>
-    <t>BWLPG</t>
-  </si>
-  <si>
-    <t>Bakkafrost</t>
-  </si>
-  <si>
-    <t>BAKKA</t>
-  </si>
-  <si>
     <t>DNB</t>
-  </si>
-  <si>
-    <t>DNO</t>
-  </si>
-  <si>
-    <t>Gjensidige Forsikring</t>
-  </si>
-  <si>
-    <t>GJF</t>
-  </si>
-  <si>
-    <t>Golden Ocean Group</t>
-  </si>
-  <si>
-    <t>GOGL</t>
-  </si>
-  <si>
-    <t>Grieg Seafood</t>
-  </si>
-  <si>
-    <t>GSF</t>
-  </si>
-  <si>
-    <t>LSG</t>
-  </si>
-  <si>
-    <t>Marine Harvest</t>
-  </si>
-  <si>
-    <t>MHG</t>
   </si>
   <si>
     <t>Norsk Hydro</t>
@@ -101,70 +47,10 @@
     <t>NHY</t>
   </si>
   <si>
-    <t>Norwegian Air Shuttle</t>
-  </si>
-  <si>
-    <t>NAS</t>
-  </si>
-  <si>
-    <t>Norwegian Finans Holding</t>
-  </si>
-  <si>
-    <t>NOFI</t>
-  </si>
-  <si>
-    <t>Orkla</t>
-  </si>
-  <si>
-    <t>ORK</t>
-  </si>
-  <si>
-    <t>Petroleum Geo-Services</t>
-  </si>
-  <si>
-    <t>PGS</t>
-  </si>
-  <si>
-    <t>Questerre Energy Corporation</t>
-  </si>
-  <si>
-    <t>QEC</t>
-  </si>
-  <si>
-    <t>SalMar</t>
-  </si>
-  <si>
-    <t>SALM</t>
-  </si>
-  <si>
-    <t>Schibsted ser. A</t>
-  </si>
-  <si>
-    <t>SCHA</t>
-  </si>
-  <si>
     <t>Statoil</t>
   </si>
   <si>
     <t>STL</t>
-  </si>
-  <si>
-    <t>Storebrand</t>
-  </si>
-  <si>
-    <t>STB</t>
-  </si>
-  <si>
-    <t>Subsea 7</t>
-  </si>
-  <si>
-    <t>SUBC</t>
-  </si>
-  <si>
-    <t>TGS-NOPEC Geophysical Company</t>
-  </si>
-  <si>
-    <t>TGS</t>
   </si>
   <si>
     <t>Telenor</t>
@@ -173,16 +59,13 @@
     <t>TEL</t>
   </si>
   <si>
-    <t>Yara International</t>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Yara</t>
   </si>
   <si>
     <t>YAR</t>
-  </si>
-  <si>
-    <t>Stock</t>
-  </si>
-  <si>
-    <t>Leroy Seafood Group</t>
   </si>
 </sst>
 </file>
@@ -246,8 +129,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8270F7F6-8481-489B-9D26-F4629EDE57D9}" name="Table1" displayName="Table1" ref="A1:B27" totalsRowShown="0">
-  <autoFilter ref="A1:B27" xr:uid="{134C3576-B4AA-4B6B-834B-EDE08AF42F9E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8270F7F6-8481-489B-9D26-F4629EDE57D9}" name="Table1" displayName="Table1" ref="A1:B6" totalsRowShown="0">
+  <autoFilter ref="A1:B6" xr:uid="{134C3576-B4AA-4B6B-834B-EDE08AF42F9E}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{265050C6-D230-4DCE-9AD7-325F2869BE87}" name="Stock" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{6A66BBD1-5FF3-4541-AEE3-DC70017CF070}" name="Ticker" dataDxfId="0"/>
@@ -553,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909A5B1F-B6FE-42FB-A7AF-2CDF708C07E3}">
-  <dimension ref="A1:B195"/>
+  <dimension ref="A1:B174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E26"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -567,7 +450,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -578,200 +461,120 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
@@ -1364,90 +1167,6 @@
     <row r="174" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
